--- a/Team-Data/2007-08/1-6-2007-08.xlsx
+++ b/Team-Data/2007-08/1-6-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -765,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -777,16 +844,16 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP2" t="n">
         <v>4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS2" t="n">
         <v>24</v>
@@ -798,19 +865,19 @@
         <v>23</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY2" t="n">
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -977,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
@@ -986,19 +1053,19 @@
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -1030,34 +1097,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.344</v>
+        <v>0.355</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J4" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.443</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N4" t="n">
         <v>0.371</v>
@@ -1066,16 +1133,16 @@
         <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.696</v>
+        <v>0.694</v>
       </c>
       <c r="R4" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T4" t="n">
         <v>39.8</v>
@@ -1084,7 +1151,7 @@
         <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W4" t="n">
         <v>7.7</v>
@@ -1096,25 +1163,25 @@
         <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA4" t="n">
         <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
@@ -1126,13 +1193,13 @@
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1144,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1162,28 +1229,28 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
         <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>26</v>
       </c>
       <c r="BC4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1350,13 +1417,13 @@
         <v>14</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.485</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,76 +1479,76 @@
         <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K6" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M6" t="n">
         <v>18.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.349</v>
+        <v>0.345</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.716</v>
+        <v>0.717</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
         <v>30.7</v>
       </c>
       <c r="T6" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V6" t="n">
         <v>14.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1496,13 +1563,13 @@
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
         <v>20</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT6" t="n">
         <v>7</v>
@@ -1529,16 +1596,16 @@
         <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AX6" t="n">
         <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
         <v>25</v>
@@ -1547,7 +1614,7 @@
         <v>19</v>
       </c>
       <c r="BC6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.676</v>
+        <v>0.667</v>
       </c>
       <c r="H7" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K7" t="n">
         <v>0.467</v>
@@ -1603,37 +1670,37 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="P7" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.825</v>
+        <v>0.826</v>
       </c>
       <c r="R7" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
         <v>41.9</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V7" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
         <v>5.3</v>
@@ -1645,34 +1712,34 @@
         <v>22.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB7" t="n">
         <v>101.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
         <v>6</v>
@@ -1681,10 +1748,10 @@
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>4</v>
@@ -1696,16 +1763,16 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU7" t="n">
         <v>17</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>16</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,13 +1781,13 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1729,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.625</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="J8" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.457</v>
@@ -1785,73 +1852,73 @@
         <v>6.2</v>
       </c>
       <c r="M8" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O8" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S8" t="n">
         <v>33.5</v>
       </c>
       <c r="T8" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
         <v>16.3</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
@@ -1866,10 +1933,10 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1887,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>28</v>
@@ -1899,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>10.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,10 +2100,10 @@
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>5</v>
@@ -2069,16 +2136,16 @@
         <v>25</v>
       </c>
       <c r="AU9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2233,10 +2300,10 @@
         <v>16</v>
       </c>
       <c r="AO10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP10" t="n">
         <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
@@ -2263,13 +2330,13 @@
         <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -2382,28 +2449,28 @@
         <v>1.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>18</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2439,7 +2506,7 @@
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -2486,88 +2553,88 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.457</v>
+        <v>0.471</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J12" t="n">
         <v>86.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P12" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T12" t="n">
-        <v>44.9</v>
+        <v>44.7</v>
       </c>
       <c r="U12" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y12" t="n">
         <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="AA12" t="n">
         <v>21.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.8</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
         <v>19</v>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2588,13 +2655,13 @@
         <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>21</v>
@@ -2618,13 +2685,13 @@
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -2668,91 +2735,91 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="J13" t="n">
         <v>79.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="L13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M13" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O13" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="P13" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S13" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T13" t="n">
         <v>42.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X13" t="n">
         <v>5.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.09999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="AC13" t="n">
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2770,25 +2837,25 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS13" t="n">
         <v>8</v>
@@ -2797,25 +2864,25 @@
         <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
         <v>10</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
         <v>25</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB13" t="n">
         <v>30</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.656</v>
+        <v>0.645</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.359</v>
+        <v>0.353</v>
       </c>
       <c r="O14" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="P14" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="S14" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
@@ -2919,19 +2986,19 @@
         <v>22.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.2</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2943,10 +3010,10 @@
         <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,19 +3025,19 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
         <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2988,16 +3055,16 @@
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -3032,88 +3099,88 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.303</v>
+        <v>0.281</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>79.8</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L15" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M15" t="n">
         <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
         <v>9.6</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T15" t="n">
         <v>41.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>16</v>
       </c>
       <c r="W15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB15" t="n">
         <v>100.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>26</v>
@@ -3122,13 +3189,13 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
         <v>11</v>
@@ -3140,52 +3207,52 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>27</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
       </c>
       <c r="BA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB15" t="n">
         <v>10</v>
       </c>
-      <c r="BB15" t="n">
-        <v>11</v>
-      </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -3214,76 +3281,76 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.235</v>
+        <v>0.242</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="K16" t="n">
         <v>0.461</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O16" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="P16" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.696</v>
+        <v>0.699</v>
       </c>
       <c r="R16" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T16" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U16" t="n">
         <v>19.7</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W16" t="n">
         <v>7.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
         <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB16" t="n">
         <v>94</v>
@@ -3292,7 +3359,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
@@ -3304,16 +3371,16 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3322,16 +3389,16 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3349,25 +3416,25 @@
         <v>15</v>
       </c>
       <c r="AW16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB16" t="n">
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
         <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>0.394</v>
+        <v>0.375</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3417,43 +3484,43 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M17" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O17" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P17" t="n">
         <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R17" t="n">
         <v>12.3</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3465,22 +3532,22 @@
         <v>21.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
@@ -3489,7 +3556,7 @@
         <v>5</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3498,13 +3565,13 @@
         <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3528,10 +3595,10 @@
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX17" t="n">
         <v>20</v>
@@ -3540,7 +3607,7 @@
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
@@ -3549,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -3578,58 +3645,58 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>0.121</v>
+        <v>0.125</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>83.3</v>
+        <v>83.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
         <v>5.7</v>
       </c>
       <c r="M18" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="S18" t="n">
         <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U18" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="V18" t="n">
         <v>15.8</v>
@@ -3638,7 +3705,7 @@
         <v>7.3</v>
       </c>
       <c r="X18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
         <v>6.2</v>
@@ -3650,13 +3717,13 @@
         <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.300000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3683,10 +3750,10 @@
         <v>19</v>
       </c>
       <c r="AM18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN18" t="n">
         <v>20</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3698,7 +3765,7 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
         <v>23</v>
@@ -3710,13 +3777,13 @@
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW18" t="n">
         <v>18</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -3850,7 +3917,7 @@
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,7 +3932,7 @@
         <v>22</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
@@ -3892,28 +3959,28 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>4.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4032,10 +4099,10 @@
         <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
         <v>8</v>
@@ -4047,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN20" t="n">
         <v>10</v>
@@ -4077,13 +4144,13 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4238,7 +4305,7 @@
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
@@ -4256,10 +4323,10 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,10 +4335,10 @@
         <v>28</v>
       </c>
       <c r="AZ21" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA21" t="n">
         <v>17</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>16</v>
       </c>
       <c r="BB21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -4387,22 +4454,22 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH22" t="n">
         <v>3</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
         <v>7</v>
@@ -4420,10 +4487,10 @@
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR22" t="n">
         <v>26</v>
@@ -4441,7 +4508,7 @@
         <v>16</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX22" t="n">
         <v>19</v>
@@ -4450,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -4488,91 +4555,91 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>0.412</v>
+        <v>0.424</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
-        <v>80.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L23" t="n">
         <v>4.1</v>
       </c>
       <c r="M23" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O23" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P23" t="n">
         <v>24.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.713</v>
+        <v>0.716</v>
       </c>
       <c r="R23" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="S23" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="Z23" t="n">
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
         <v>20</v>
@@ -4584,7 +4651,7 @@
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
@@ -4605,34 +4672,34 @@
         <v>18</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS23" t="n">
         <v>26</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU23" t="n">
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX23" t="n">
         <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4772,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4942,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI25" t="n">
         <v>20</v>
@@ -4951,7 +5018,7 @@
         <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
@@ -4972,7 +5039,7 @@
         <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
         <v>19</v>
@@ -4987,7 +5054,7 @@
         <v>7</v>
       </c>
       <c r="AW25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX25" t="n">
         <v>18</v>
@@ -4999,10 +5066,10 @@
         <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>-3.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
@@ -5142,7 +5209,7 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5154,7 +5221,7 @@
         <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS26" t="n">
         <v>25</v>
@@ -5169,7 +5236,7 @@
         <v>30</v>
       </c>
       <c r="AW26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>28</v>
@@ -5187,7 +5254,7 @@
         <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" t="n">
         <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>0.719</v>
+        <v>0.71</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J27" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L27" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N27" t="n">
-        <v>0.386</v>
+        <v>0.392</v>
       </c>
       <c r="O27" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="P27" t="n">
-        <v>22.3</v>
+        <v>21.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
         <v>31.5</v>
       </c>
       <c r="T27" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U27" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="V27" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.3</v>
@@ -5282,22 +5349,22 @@
         <v>4.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="AC27" t="n">
         <v>6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
@@ -5309,19 +5376,19 @@
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN27" t="n">
         <v>2</v>
@@ -5333,10 +5400,10 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>12</v>
@@ -5357,13 +5424,13 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.273</v>
+        <v>0.281</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="J28" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L28" t="n">
         <v>4.8</v>
       </c>
       <c r="M28" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O28" t="n">
         <v>18.3</v>
@@ -5437,70 +5504,70 @@
         <v>23.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="U28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V28" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="W28" t="n">
         <v>6.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>-6.7</v>
+        <v>-6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
@@ -5536,22 +5603,22 @@
         <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -5580,64 +5647,64 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.515</v>
       </c>
       <c r="H29" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I29" t="n">
         <v>36.9</v>
       </c>
       <c r="J29" t="n">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.408</v>
+        <v>0.413</v>
       </c>
       <c r="O29" t="n">
         <v>15.4</v>
       </c>
       <c r="P29" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.798</v>
+        <v>0.805</v>
       </c>
       <c r="R29" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U29" t="n">
         <v>22.1</v>
       </c>
       <c r="V29" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
@@ -5646,28 +5713,28 @@
         <v>4.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>22</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="n">
         <v>11</v>
@@ -5715,13 +5782,13 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5730,7 +5797,7 @@
         <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>12</v>
       </c>
       <c r="AF30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG30" t="n">
         <v>15</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5909,13 +5976,13 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
         <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.531</v>
+        <v>0.516</v>
       </c>
       <c r="H31" t="n">
         <v>48.3</v>
       </c>
       <c r="I31" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L31" t="n">
         <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N31" t="n">
         <v>0.348</v>
@@ -5989,43 +6056,43 @@
         <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U31" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
         <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
@@ -6037,10 +6104,10 @@
         <v>10</v>
       </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -6052,7 +6119,7 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
         <v>12</v>
@@ -6064,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS31" t="n">
         <v>13</v>
@@ -6079,22 +6146,22 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-6-2007-08</t>
+          <t>2008-01-06</t>
         </is>
       </c>
     </row>
